--- a/files/abertura_pastas/modelo/C3 -PLAW - FORMULÁRIO FINAL.xlsx
+++ b/files/abertura_pastas/modelo/C3 -PLAW - FORMULÁRIO FINAL.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DESENVOLVIMENTO\PYTHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DESENVOLVIMENTO\PYTHON\dplaw_Robot\files\abertura_pastas\modelo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>NRO_PROCESSO</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>HORA_AUD</t>
-  </si>
-  <si>
-    <t>NovaComarca</t>
   </si>
 </sst>
 </file>
@@ -141,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -175,9 +172,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -470,11 +464,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S299"/>
+  <dimension ref="A1:R299"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -495,18 +487,17 @@
     <col min="15" max="15" width="20.42578125" customWidth="1"/>
     <col min="16" max="16" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.140625" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="16379" max="16379" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16381" max="16381" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="16382" max="16382" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16383" max="16384" width="6.140625" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="16378" max="16378" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16380" max="16380" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="16381" max="16381" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="16382" max="16384" width="6.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -516,19 +507,19 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
@@ -559,71 +550,68 @@
       <c r="R1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="3"/>
       <c r="J2" s="2"/>
       <c r="Q2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
       <c r="J3" s="2"/>
       <c r="Q3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
       <c r="J7" s="2"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
       <c r="J9" s="2"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C11" s="3"/>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C12" s="3"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C13" s="3"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C14" s="3"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C15" s="3"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C16" s="3"/>
       <c r="J16" s="2"/>
     </row>
@@ -1760,8 +1748,8 @@
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="4"/>
-      <c r="D299" s="20"/>
-      <c r="E299" s="20"/>
+      <c r="D299" s="19"/>
+      <c r="E299" s="19"/>
       <c r="F299" s="1"/>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
@@ -1772,11 +1760,11 @@
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
       <c r="Q299" s="1"/>
-      <c r="R299" s="18"/>
+      <c r="R299" s="17"/>
     </row>
   </sheetData>
-  <sortState ref="XEZ2:XEZ9">
-    <sortCondition ref="XEZ2"/>
+  <sortState ref="XEY2:XEY9">
+    <sortCondition ref="XEY2"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="G1:H1"/>
